--- a/Misc/WorkdayCounts.xlsx
+++ b/Misc/WorkdayCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\Matlab Traffic\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Projects\SwissTraffic\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A52C58-7D48-4F9F-8A9D-C8BDA61038DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348610A-A561-4C38-AB49-814A7C5C647F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{673CE625-E404-4661-8042-0D37BD20FC2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{673CE625-E404-4661-8042-0D37BD20FC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -528,7 +537,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +580,39 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -581,7 +623,7 @@
         <v>33799.032661792357</v>
       </c>
       <c r="C2" s="11">
-        <f>L6</f>
+        <f>L3</f>
         <v>77506</v>
       </c>
       <c r="D2" s="11">
@@ -595,13 +637,45 @@
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="K2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="N2" s="2"/>
+      <c r="J2" s="1">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>36747</v>
+      </c>
+      <c r="M2" s="10">
+        <v>36511</v>
+      </c>
+      <c r="N2" s="10">
+        <f>1599592</f>
+        <v>1599592</v>
+      </c>
+      <c r="O2" s="10">
+        <v>365</v>
+      </c>
+      <c r="P2" s="10">
+        <f t="shared" ref="P2:P6" si="1">N2*365/O2</f>
+        <v>1599592</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>L2*365*$K$10</f>
+        <v>8946240.8849999998</v>
+      </c>
+      <c r="R2" s="10">
+        <f t="shared" ref="R2:R6" si="2">Q2-P2</f>
+        <v>7346648.8849999998</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" ref="S2:S3" si="3">R2/Q2</f>
+        <v>0.821199538380192</v>
+      </c>
+      <c r="T2" s="13">
+        <f>1-S2</f>
+        <v>0.178800461619808</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -612,7 +686,7 @@
         <v>35015.012061321177</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:C9" si="1">FORECAST(A3,$C$10:$C$19,$A$10:$A$19)</f>
+        <f t="shared" ref="C3:C9" si="4">FORECAST(A3,$C$10:$C$19,$A$10:$A$19)</f>
         <v>80754.163409504108</v>
       </c>
       <c r="D3" s="11">
@@ -626,7 +700,44 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="N3" s="2"/>
+      <c r="J3" s="1">
+        <v>43</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>77506</v>
+      </c>
+      <c r="M3" s="10">
+        <v>80856</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1122265</v>
+      </c>
+      <c r="O3" s="10">
+        <v>365</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" si="1"/>
+        <v>1122265</v>
+      </c>
+      <c r="Q3" s="10">
+        <f>L3*365*$K$10</f>
+        <v>18869223.23</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" si="2"/>
+        <v>17746958.23</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" si="3"/>
+        <v>0.94052404880049745</v>
+      </c>
+      <c r="T3" s="13">
+        <f t="shared" ref="T3:T8" si="5">1-S3</f>
+        <v>5.9475951199502552E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -637,7 +748,7 @@
         <v>36230.991460849997</v>
       </c>
       <c r="C4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82340.057870398276</v>
       </c>
       <c r="D4" s="11">
@@ -651,38 +762,43 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>12</v>
+      <c r="J4" s="1">
+        <v>150</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="10">
+        <v>16420</v>
+      </c>
+      <c r="M4" s="10">
+        <v>15373</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1151658</v>
+      </c>
+      <c r="O4" s="10">
+        <v>365</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="1"/>
+        <v>1151658</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>L4*365*$K$10</f>
+        <v>3997531.1</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="2"/>
+        <v>2845873.1</v>
+      </c>
+      <c r="S4" s="9">
+        <f>R4/Q4</f>
+        <v>0.71190768221915768</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" si="5"/>
+        <v>0.28809231778084232</v>
       </c>
       <c r="U4" s="12"/>
     </row>
@@ -691,71 +807,73 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10">
+        <f>M2</f>
+        <v>36511</v>
+      </c>
+      <c r="C5" s="10">
+        <f>M3</f>
+        <v>80856</v>
+      </c>
+      <c r="D5" s="10">
+        <f>M4</f>
+        <v>15373</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E10" si="6">FORECAST(A5,$E$11:$E$19,$A$11:$A$19)</f>
+        <v>47533.482796621043</v>
+      </c>
+      <c r="F5" s="10">
+        <f>M6</f>
+        <v>72570</v>
+      </c>
+      <c r="G5" s="10">
+        <f>M7</f>
+        <v>29953</v>
+      </c>
+      <c r="H5" s="10">
+        <f>M8</f>
+        <v>7349</v>
+      </c>
+      <c r="J5" s="1">
+        <v>303</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10">
         <f>M5</f>
-        <v>36511</v>
-      </c>
-      <c r="C5" s="10">
-        <f>M6</f>
-        <v>80856</v>
-      </c>
-      <c r="D5" s="10">
-        <f>M7</f>
-        <v>15373</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" ref="E5:E10" si="2">FORECAST(A5,$E$11:$E$19,$A$11:$A$19)</f>
         <v>47533.482796621043</v>
       </c>
-      <c r="F5" s="10">
-        <f>M9</f>
-        <v>72570</v>
-      </c>
-      <c r="G5" s="10">
-        <f>M10</f>
-        <v>29953</v>
-      </c>
-      <c r="H5" s="10">
-        <f>M11</f>
-        <v>7349</v>
-      </c>
-      <c r="J5" s="1">
-        <v>137</v>
-      </c>
-      <c r="K5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>36747</v>
-      </c>
       <c r="M5" s="10">
-        <v>36511</v>
+        <f>E5</f>
+        <v>47533.482796621043</v>
       </c>
       <c r="N5" s="10">
-        <f>1599592</f>
-        <v>1599592</v>
+        <f>1313611</f>
+        <v>1313611</v>
       </c>
       <c r="O5" s="10">
         <v>365</v>
       </c>
       <c r="P5" s="10">
-        <f t="shared" ref="P5:P10" si="3">N5*365/O5</f>
-        <v>1599592</v>
+        <f t="shared" si="1"/>
+        <v>1313611</v>
       </c>
       <c r="Q5" s="10">
-        <f>L5*365*$L$2</f>
-        <v>8946240.8849999998</v>
+        <f>L5*365*$K$10</f>
+        <v>11572264.054251378</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" ref="R5:R10" si="4">Q5-P5</f>
-        <v>7346648.8849999998</v>
+        <f t="shared" si="2"/>
+        <v>10258653.054251378</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" ref="S5:S6" si="5">R5/Q5</f>
-        <v>0.821199538380192</v>
+        <f t="shared" ref="S5:S8" si="7">R5/Q5</f>
+        <v>0.88648625767250699</v>
       </c>
       <c r="T5" s="13">
-        <f>1-S5</f>
-        <v>0.178800461619808</v>
+        <f t="shared" si="5"/>
+        <v>0.11351374232749301</v>
       </c>
       <c r="U5" s="9"/>
       <c r="W5" s="10"/>
@@ -767,11 +885,11 @@
         <v>2004</v>
       </c>
       <c r="B6" s="11">
-        <f t="shared" ref="B6:B11" si="6">FORECAST(A6,$B$12:$B$19,$A$12:$A$19)</f>
+        <f t="shared" ref="B6:B11" si="8">FORECAST(A6,$B$12:$B$19,$A$12:$A$19)</f>
         <v>38662.950259908102</v>
       </c>
       <c r="C6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>85511.846792187076</v>
       </c>
       <c r="D6" s="11">
@@ -779,49 +897,49 @@
         <v>15248.149524317414</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>48795.407862112857</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="J6" s="1">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" s="10">
-        <v>77506</v>
+        <v>71552</v>
       </c>
       <c r="M6" s="10">
-        <v>80856</v>
+        <v>72570</v>
       </c>
       <c r="N6" s="10">
-        <v>1122265</v>
+        <v>2289927</v>
       </c>
       <c r="O6" s="10">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" si="3"/>
-        <v>1122265</v>
+        <f t="shared" si="1"/>
+        <v>2388066.7285714285</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" ref="Q6:Q11" si="7">L6*365*$L$2</f>
-        <v>18869223.23</v>
+        <f>L6*365*$K$10</f>
+        <v>17419692.16</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" si="4"/>
-        <v>17746958.23</v>
+        <f t="shared" si="2"/>
+        <v>15031625.431428572</v>
       </c>
       <c r="S6" s="9">
+        <f t="shared" si="7"/>
+        <v>0.86290993511039016</v>
+      </c>
+      <c r="T6" s="13">
         <f t="shared" si="5"/>
-        <v>0.94052404880049745</v>
-      </c>
-      <c r="T6" s="13">
-        <f t="shared" ref="T6:T11" si="8">1-S6</f>
-        <v>5.9475951199502552E-2</v>
+        <v>0.13709006488960984</v>
       </c>
       <c r="U6" s="9"/>
       <c r="W6" s="10"/>
@@ -833,11 +951,11 @@
         <v>2005</v>
       </c>
       <c r="B7" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>39878.929659436923</v>
       </c>
       <c r="C7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87097.741253081243</v>
       </c>
       <c r="D7" s="11">
@@ -845,49 +963,49 @@
         <v>15358.549617202079</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>50057.332927604672</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="1">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L7" s="10">
-        <v>16420</v>
+        <v>30267</v>
       </c>
       <c r="M7" s="10">
-        <v>15373</v>
+        <v>29953</v>
       </c>
       <c r="N7" s="10">
-        <v>1151658</v>
+        <v>897713</v>
       </c>
       <c r="O7" s="10">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P7" s="10">
-        <f t="shared" si="3"/>
-        <v>1151658</v>
+        <f>N7*365/O7</f>
+        <v>902659.07713498618</v>
       </c>
       <c r="Q7" s="10">
+        <f>L7*365*$K$10</f>
+        <v>7368652.4850000003</v>
+      </c>
+      <c r="R7" s="10">
+        <f>Q7-P7</f>
+        <v>6465993.4078650139</v>
+      </c>
+      <c r="S7" s="9">
         <f t="shared" si="7"/>
-        <v>3997531.1</v>
-      </c>
-      <c r="R7" s="10">
-        <f t="shared" si="4"/>
-        <v>2845873.1</v>
-      </c>
-      <c r="S7" s="9">
-        <f>R7/Q7</f>
-        <v>0.71190768221915768</v>
+        <v>0.87750011566260122</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="8"/>
-        <v>0.28809231778084232</v>
+        <f t="shared" si="5"/>
+        <v>0.12249988433739878</v>
       </c>
       <c r="U7" s="9"/>
       <c r="W7" s="10"/>
@@ -899,11 +1017,11 @@
         <v>2006</v>
       </c>
       <c r="B8" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>41094.909058965743</v>
       </c>
       <c r="C8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88683.635713975877</v>
       </c>
       <c r="D8" s="11">
@@ -911,52 +1029,50 @@
         <v>15468.949710086716</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>51319.257993096486</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" s="1">
-        <v>303</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L8" s="10">
-        <f>M8</f>
-        <v>47533.482796621043</v>
+        <v>8317</v>
       </c>
       <c r="M8" s="10">
-        <f>E5</f>
-        <v>47533.482796621043</v>
+        <v>7349</v>
       </c>
       <c r="N8" s="10">
-        <f>1313611</f>
-        <v>1313611</v>
+        <f>359867</f>
+        <v>359867</v>
       </c>
       <c r="O8" s="10">
         <v>365</v>
       </c>
       <c r="P8" s="10">
-        <f t="shared" si="3"/>
-        <v>1313611</v>
+        <f>N8*365/O8</f>
+        <v>359867</v>
       </c>
       <c r="Q8" s="10">
+        <f>L8*365*$K$10</f>
+        <v>2024815.2350000001</v>
+      </c>
+      <c r="R8" s="10">
+        <f>Q8-P8</f>
+        <v>1664948.2350000001</v>
+      </c>
+      <c r="S8" s="9">
         <f t="shared" si="7"/>
-        <v>11572264.054251378</v>
-      </c>
-      <c r="R8" s="10">
-        <f t="shared" si="4"/>
-        <v>10258653.054251378</v>
-      </c>
-      <c r="S8" s="9">
-        <f t="shared" ref="S8:S11" si="9">R8/Q8</f>
-        <v>0.88648625767250699</v>
-      </c>
-      <c r="T8" s="13">
-        <f t="shared" si="8"/>
-        <v>0.11351374232749301</v>
+        <v>0.82227168495203462</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="5"/>
+        <v>0.17772831504796538</v>
       </c>
       <c r="U8" s="9"/>
       <c r="W8" s="10"/>
@@ -968,11 +1084,11 @@
         <v>2007</v>
       </c>
       <c r="B9" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42310.888458494563</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>90269.530174870044</v>
       </c>
       <c r="D9" s="11">
@@ -980,50 +1096,13 @@
         <v>15579.349802971381</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>52581.1830585883</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="1">
-        <v>23</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="10">
-        <v>71552</v>
-      </c>
-      <c r="M9" s="10">
-        <v>72570</v>
-      </c>
-      <c r="N9" s="10">
-        <v>2289927</v>
-      </c>
-      <c r="O9" s="10">
-        <v>350</v>
-      </c>
-      <c r="P9" s="10">
-        <f t="shared" si="3"/>
-        <v>2388066.7285714285</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="7"/>
-        <v>17419692.16</v>
-      </c>
-      <c r="R9" s="10">
-        <f t="shared" si="4"/>
-        <v>15031625.431428572</v>
-      </c>
-      <c r="S9" s="9">
-        <f t="shared" si="9"/>
-        <v>0.86290993511039016</v>
-      </c>
-      <c r="T9" s="13">
-        <f t="shared" si="8"/>
-        <v>0.13709006488960984</v>
-      </c>
+      <c r="S9" s="1"/>
       <c r="U9" s="9"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -1034,7 +1113,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>43526.867858023383</v>
       </c>
       <c r="C10" s="10">
@@ -1044,49 +1123,17 @@
         <v>15559.082677165354</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>53843.10812408058</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="1">
-        <v>35</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="10">
-        <v>30267</v>
-      </c>
-      <c r="M10" s="10">
-        <v>29953</v>
-      </c>
-      <c r="N10" s="10">
-        <v>897713</v>
-      </c>
-      <c r="O10" s="10">
-        <v>363</v>
-      </c>
-      <c r="P10" s="10">
-        <f>N10*365/O10</f>
-        <v>902659.07713498618</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="7"/>
-        <v>7368652.4850000003</v>
-      </c>
-      <c r="R10" s="10">
-        <f>Q10-P10</f>
-        <v>6465993.4078650139</v>
-      </c>
-      <c r="S10" s="9">
-        <f t="shared" si="9"/>
-        <v>0.87750011566260122</v>
-      </c>
-      <c r="T10" s="13">
-        <f t="shared" si="8"/>
-        <v>0.12249988433739878</v>
+      <c r="J10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.66700000000000004</v>
       </c>
       <c r="U10" s="9"/>
       <c r="W10" s="10"/>
@@ -1098,7 +1145,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44742.847257552668</v>
       </c>
       <c r="C11" s="11">
@@ -1114,45 +1161,6 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="1">
-        <v>202</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="10">
-        <v>8317</v>
-      </c>
-      <c r="M11" s="10">
-        <v>7349</v>
-      </c>
-      <c r="N11" s="10">
-        <f>359867</f>
-        <v>359867</v>
-      </c>
-      <c r="O11" s="10">
-        <v>365</v>
-      </c>
-      <c r="P11" s="10">
-        <f>N11*365/O11</f>
-        <v>359867</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="7"/>
-        <v>2024815.2350000001</v>
-      </c>
-      <c r="R11" s="10">
-        <f>Q11-P11</f>
-        <v>1664948.2350000001</v>
-      </c>
-      <c r="S11" s="9">
-        <f t="shared" si="9"/>
-        <v>0.82227168495203462</v>
-      </c>
-      <c r="T11" s="9">
-        <f t="shared" si="8"/>
-        <v>0.17772831504796538</v>
-      </c>
       <c r="U11" s="9"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -1178,7 +1186,6 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">

--- a/Misc/WorkdayCounts.xlsx
+++ b/Misc/WorkdayCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Projects\SwissTraffic\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348610A-A561-4C38-AB49-814A7C5C647F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899A860-6986-4AA3-8683-4D66A927DCE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{673CE625-E404-4661-8042-0D37BD20FC2D}"/>
+    <workbookView minimized="1" xWindow="-27570" yWindow="1200" windowWidth="24015" windowHeight="13575" xr2:uid="{673CE625-E404-4661-8042-0D37BD20FC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Ceneri</t>
   </si>
@@ -94,16 +94,33 @@
   </si>
   <si>
     <t>% Vehicles &lt; 3.5t</t>
+  </si>
+  <si>
+    <t>CeneriStation</t>
+  </si>
+  <si>
+    <t>DengesStation</t>
+  </si>
+  <si>
+    <t>GotthardStation</t>
+  </si>
+  <si>
+    <t>OberburenStation</t>
+  </si>
+  <si>
+    <t>check direction specific numbers and if we miss lanes…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="[$CHF]\ #,##0.00;\-[$CHF]\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +167,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,8 +197,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="31"/>
+      </left>
+      <right style="thin">
+        <color indexed="31"/>
+      </right>
+      <top style="thin">
+        <color indexed="31"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="31"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -179,8 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,7 +240,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -213,8 +258,14 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="Currency" xfId="8" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10785CB0-2DD5-4910-95D2-D8ED245051E2}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{532D97FA-C8FF-4274-915C-6C073B49BE58}"/>
@@ -534,28 +585,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6818279E-5BC6-4F52-A1D5-1B44BD8BB04D}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="10" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" style="2" customWidth="1"/>
-    <col min="17" max="19" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="10" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="16" width="16.6640625" style="2" customWidth="1"/>
+    <col min="17" max="19" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" customWidth="1"/>
+    <col min="23" max="24" width="14.88671875" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -580,61 +631,61 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <f>FORECAST(A2,$B$12:$B$19,$A$12:$A$19)</f>
         <v>33799.032661792357</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f>L3</f>
         <v>77506</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f t="shared" ref="D2:D9" si="0">FORECAST(A2,$D$10:$D$19,$A$10:$A$19)</f>
         <v>14806.54915277884</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>FORECAST(A2,$E$11:$E$19,$A$11:$A$19)</f>
         <v>43747.707600145135</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2" s="1">
@@ -643,57 +694,57 @@
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>36747</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>36511</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <f>1599592</f>
         <v>1599592</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>365</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <f t="shared" ref="P2:P6" si="1">N2*365/O2</f>
         <v>1599592</v>
       </c>
-      <c r="Q2" s="10">
-        <f>L2*365*$K$10</f>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2:Q8" si="2">L2*365*$K$10</f>
         <v>8946240.8849999998</v>
       </c>
-      <c r="R2" s="10">
-        <f t="shared" ref="R2:R6" si="2">Q2-P2</f>
+      <c r="R2" s="9">
+        <f t="shared" ref="R2:R6" si="3">Q2-P2</f>
         <v>7346648.8849999998</v>
       </c>
-      <c r="S2" s="9">
-        <f t="shared" ref="S2:S3" si="3">R2/Q2</f>
+      <c r="S2" s="8">
+        <f t="shared" ref="S2:S3" si="4">R2/Q2</f>
         <v>0.821199538380192</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <f>1-S2</f>
         <v>0.178800461619808</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f>FORECAST(A3,$B$12:$B$19,$A$12:$A$19)</f>
         <v>35015.012061321177</v>
       </c>
-      <c r="C3" s="11">
-        <f t="shared" ref="C3:C9" si="4">FORECAST(A3,$C$10:$C$19,$A$10:$A$19)</f>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3:C9" si="5">FORECAST(A3,$C$10:$C$19,$A$10:$A$19)</f>
         <v>80754.163409504108</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f t="shared" si="0"/>
         <v>14916.949245663476</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>FORECAST(A3,$E$11:$E$19,$A$11:$A$19)</f>
         <v>45009.632665636949</v>
       </c>
@@ -706,56 +757,56 @@
       <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>77506</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>80856</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>1122265</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>365</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <f t="shared" si="1"/>
         <v>1122265</v>
       </c>
-      <c r="Q3" s="10">
-        <f>L3*365*$K$10</f>
+      <c r="Q3" s="9">
+        <f t="shared" si="2"/>
         <v>18869223.23</v>
       </c>
-      <c r="R3" s="10">
-        <f t="shared" si="2"/>
+      <c r="R3" s="9">
+        <f t="shared" si="3"/>
         <v>17746958.23</v>
       </c>
-      <c r="S3" s="9">
-        <f t="shared" si="3"/>
+      <c r="S3" s="8">
+        <f t="shared" si="4"/>
         <v>0.94052404880049745</v>
       </c>
-      <c r="T3" s="13">
-        <f t="shared" ref="T3:T8" si="5">1-S3</f>
+      <c r="T3" s="12">
+        <f t="shared" ref="T3:T8" si="6">1-S3</f>
         <v>5.9475951199502552E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <f>FORECAST(A4,$B$12:$B$19,$A$12:$A$19)</f>
         <v>36230.991460849997</v>
       </c>
-      <c r="C4" s="11">
-        <f t="shared" si="4"/>
+      <c r="C4" s="10">
+        <f t="shared" si="5"/>
         <v>82340.057870398276</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>15027.349338548142</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>FORECAST(A4,$E$11:$E$19,$A$11:$A$19)</f>
         <v>46271.557731128763</v>
       </c>
@@ -768,136 +819,136 @@
       <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>16420</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>15373</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>1151658</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>365</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <f t="shared" si="1"/>
         <v>1151658</v>
       </c>
-      <c r="Q4" s="10">
-        <f>L4*365*$K$10</f>
+      <c r="Q4" s="9">
+        <f t="shared" si="2"/>
         <v>3997531.1</v>
       </c>
-      <c r="R4" s="10">
-        <f t="shared" si="2"/>
+      <c r="R4" s="9">
+        <f t="shared" si="3"/>
         <v>2845873.1</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <f>R4/Q4</f>
         <v>0.71190768221915768</v>
       </c>
-      <c r="T4" s="13">
-        <f t="shared" si="5"/>
+      <c r="T4" s="12">
+        <f t="shared" si="6"/>
         <v>0.28809231778084232</v>
       </c>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>M2</f>
         <v>36511</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <f>M3</f>
         <v>80856</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f>M4</f>
         <v>15373</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" ref="E5:E10" si="6">FORECAST(A5,$E$11:$E$19,$A$11:$A$19)</f>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E10" si="7">FORECAST(A5,$E$11:$E$19,$A$11:$A$19)</f>
         <v>47533.482796621043</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f>M6</f>
         <v>72570</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f>M7</f>
         <v>29953</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f>M8</f>
         <v>7349</v>
       </c>
       <c r="J5" s="1">
         <v>303</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f>M5</f>
         <v>47533.482796621043</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <f>E5</f>
         <v>47533.482796621043</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <f>1313611</f>
         <v>1313611</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>365</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <f t="shared" si="1"/>
         <v>1313611</v>
       </c>
-      <c r="Q5" s="10">
-        <f>L5*365*$K$10</f>
+      <c r="Q5" s="9">
+        <f t="shared" si="2"/>
         <v>11572264.054251378</v>
       </c>
-      <c r="R5" s="10">
-        <f t="shared" si="2"/>
+      <c r="R5" s="9">
+        <f t="shared" si="3"/>
         <v>10258653.054251378</v>
       </c>
-      <c r="S5" s="9">
-        <f t="shared" ref="S5:S8" si="7">R5/Q5</f>
+      <c r="S5" s="8">
+        <f t="shared" ref="S5:S8" si="8">R5/Q5</f>
         <v>0.88648625767250699</v>
       </c>
-      <c r="T5" s="13">
-        <f t="shared" si="5"/>
+      <c r="T5" s="12">
+        <f t="shared" si="6"/>
         <v>0.11351374232749301</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U5" s="8"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
-      <c r="B6" s="11">
-        <f t="shared" ref="B6:B11" si="8">FORECAST(A6,$B$12:$B$19,$A$12:$A$19)</f>
+      <c r="B6" s="10">
+        <f t="shared" ref="B6:B11" si="9">FORECAST(A6,$B$12:$B$19,$A$12:$A$19)</f>
         <v>38662.950259908102</v>
       </c>
-      <c r="C6" s="11">
-        <f t="shared" si="4"/>
+      <c r="C6" s="10">
+        <f t="shared" si="5"/>
         <v>85511.846792187076</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>15248.149524317414</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="6"/>
+      <c r="E6" s="10">
+        <f t="shared" si="7"/>
         <v>48795.407862112857</v>
       </c>
       <c r="F6" s="1"/>
@@ -909,61 +960,61 @@
       <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>71552</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>72570</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>2289927</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>350</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <f t="shared" si="1"/>
         <v>2388066.7285714285</v>
       </c>
-      <c r="Q6" s="10">
-        <f>L6*365*$K$10</f>
+      <c r="Q6" s="9">
+        <f t="shared" si="2"/>
         <v>17419692.16</v>
       </c>
-      <c r="R6" s="10">
-        <f t="shared" si="2"/>
+      <c r="R6" s="9">
+        <f t="shared" si="3"/>
         <v>15031625.431428572</v>
       </c>
-      <c r="S6" s="9">
-        <f t="shared" si="7"/>
+      <c r="S6" s="8">
+        <f t="shared" si="8"/>
         <v>0.86290993511039016</v>
       </c>
-      <c r="T6" s="13">
-        <f t="shared" si="5"/>
+      <c r="T6" s="12">
+        <f t="shared" si="6"/>
         <v>0.13709006488960984</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U6" s="8"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
-      <c r="B7" s="11">
-        <f t="shared" si="8"/>
+      <c r="B7" s="10">
+        <f t="shared" si="9"/>
         <v>39878.929659436923</v>
       </c>
-      <c r="C7" s="11">
-        <f t="shared" si="4"/>
+      <c r="C7" s="10">
+        <f t="shared" si="5"/>
         <v>87097.741253081243</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>15358.549617202079</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="6"/>
+      <c r="E7" s="10">
+        <f t="shared" si="7"/>
         <v>50057.332927604672</v>
       </c>
       <c r="F7" s="1"/>
@@ -975,61 +1026,61 @@
       <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>30267</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>29953</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>897713</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>363</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <f>N7*365/O7</f>
         <v>902659.07713498618</v>
       </c>
-      <c r="Q7" s="10">
-        <f>L7*365*$K$10</f>
+      <c r="Q7" s="9">
+        <f t="shared" si="2"/>
         <v>7368652.4850000003</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="9">
         <f>Q7-P7</f>
         <v>6465993.4078650139</v>
       </c>
-      <c r="S7" s="9">
-        <f t="shared" si="7"/>
+      <c r="S7" s="8">
+        <f t="shared" si="8"/>
         <v>0.87750011566260122</v>
       </c>
-      <c r="T7" s="13">
-        <f t="shared" si="5"/>
+      <c r="T7" s="12">
+        <f t="shared" si="6"/>
         <v>0.12249988433739878</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U7" s="8"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
-      <c r="B8" s="11">
-        <f t="shared" si="8"/>
+      <c r="B8" s="10">
+        <f t="shared" si="9"/>
         <v>41094.909058965743</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="4"/>
+      <c r="C8" s="10">
+        <f t="shared" si="5"/>
         <v>88683.635713975877</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>15468.949710086716</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="6"/>
+      <c r="E8" s="10">
+        <f t="shared" si="7"/>
         <v>51319.257993096486</v>
       </c>
       <c r="F8" s="1"/>
@@ -1041,89 +1092,89 @@
       <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>8317</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>7349</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <f>359867</f>
         <v>359867</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>365</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <f>N8*365/O8</f>
         <v>359867</v>
       </c>
-      <c r="Q8" s="10">
-        <f>L8*365*$K$10</f>
+      <c r="Q8" s="9">
+        <f t="shared" si="2"/>
         <v>2024815.2350000001</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <f>Q8-P8</f>
         <v>1664948.2350000001</v>
       </c>
-      <c r="S8" s="9">
-        <f t="shared" si="7"/>
+      <c r="S8" s="8">
+        <f t="shared" si="8"/>
         <v>0.82227168495203462</v>
       </c>
-      <c r="T8" s="9">
-        <f t="shared" si="5"/>
+      <c r="T8" s="8">
+        <f t="shared" si="6"/>
         <v>0.17772831504796538</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U8" s="8"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
-      <c r="B9" s="11">
-        <f t="shared" si="8"/>
+      <c r="B9" s="10">
+        <f t="shared" si="9"/>
         <v>42310.888458494563</v>
       </c>
-      <c r="C9" s="11">
-        <f t="shared" si="4"/>
+      <c r="C9" s="10">
+        <f t="shared" si="5"/>
         <v>90269.530174870044</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>15579.349802971381</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="6"/>
+      <c r="E9" s="10">
+        <f t="shared" si="7"/>
         <v>52581.1830585883</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="U9" s="9"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U9" s="8"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
-      <c r="B10" s="11">
-        <f t="shared" si="8"/>
+      <c r="B10" s="10">
+        <f t="shared" si="9"/>
         <v>43526.867858023383</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>88499.035433070865</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>15559.082677165354</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="6"/>
+      <c r="E10" s="10">
+        <f t="shared" si="7"/>
         <v>53843.10812408058</v>
       </c>
       <c r="F10" s="1"/>
@@ -1135,251 +1186,761 @@
       <c r="K10" s="3">
         <v>0.66700000000000004</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U10" s="8"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
-      <c r="B11" s="11">
-        <f t="shared" si="8"/>
+      <c r="B11" s="10">
+        <f t="shared" si="9"/>
         <v>44742.847257552668</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f>FORECAST(A11,C13:C19,A13:A19)</f>
         <v>94933.047631189227</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>15792.796078431373</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>54614.745098039217</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="U11" s="9"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U11" s="8"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>46361.98828125</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f>FORECAST(A12,C13:C19,A13:A19)</f>
         <v>96239.242991859093</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>16078.5234375</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>56026.2890625</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>47556</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>97276.177165354326</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>16171.5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>58472.728346456694</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>47951.814960629919</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>98595.003937007874</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>15902.55905511811</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>58906.917322834648</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>409</v>
+      </c>
+      <c r="L14" s="1">
+        <v>406</v>
+      </c>
+      <c r="M14" s="1">
+        <v>402</v>
+      </c>
+      <c r="N14" s="1">
+        <v>416</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>48912</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>100261.77865612648</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>16325.347826086956</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>60449.043478260872</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <v>408</v>
+      </c>
+      <c r="L15" s="1">
+        <v>405</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>415</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>50406</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>101926.76679841898</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>16217.130434782608</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>61371.95256916996</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>52327</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>103005.24313725501</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>16635.9725490196</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>62509.670588235298</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>53793</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>104701.05905511801</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>16596.456692913402</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>64378.586614173197</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>54410.233201581003</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>104482.14229249</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>16586.134387351802</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>64644.667984189698</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <f>FORECAST(A20,$B$12:$B$19,$A$12:$A$19)</f>
         <v>55686.661853312515</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <f>FORECAST(A20,$C$12:$C$19,$A$12:$A$19)</f>
         <v>106688.80587721802</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f>FORECAST(A20,$D$10:$D$19,$A$10:$A$19)</f>
         <v>16793.750824702496</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>FORECAST(A20,$E$11:$E$19,$A$11:$A$19)</f>
         <v>66462.358778999187</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J23" s="1"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J21" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K21" s="13">
+        <v>2936028</v>
+      </c>
+      <c r="L21" s="13">
+        <f>B3*7*52</f>
+        <v>12745464.390320908</v>
+      </c>
+      <c r="M21" s="3">
+        <f>L21/K21</f>
+        <v>4.3410568258616431</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J22" s="2">
+        <v>2002</v>
+      </c>
+      <c r="K22" s="13">
+        <v>13786414</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" ref="L22:L38" si="10">B4*7*52</f>
+        <v>13188080.891749399</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22:M38" si="11">L22/K22</f>
+        <v>0.95659980120641952</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J23" s="2">
+        <v>2003</v>
+      </c>
+      <c r="K23" s="13">
+        <v>14050233</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="10"/>
+        <v>13290004</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="11"/>
+        <v>0.94589207168308165</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K25" s="1"/>
-      <c r="M25" s="2"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J24" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K24" s="13">
+        <v>14068413</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="10"/>
+        <v>14073313.894606549</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0003483615818323</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J25" s="2">
+        <v>2005</v>
+      </c>
+      <c r="K25" s="13">
+        <v>13948319</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="10"/>
+        <v>14515930.39603504</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0406938926500777</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J26" s="2">
+        <v>2006</v>
+      </c>
+      <c r="K26" s="13">
+        <v>14119127</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="10"/>
+        <v>14958546.89746353</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0594526770290777</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J27" s="2">
+        <v>2007</v>
+      </c>
+      <c r="K27" s="13">
+        <v>15815072</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="10"/>
+        <v>15401163.398892021</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97382821898578908</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J28" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K28" s="13">
+        <v>15990466</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="10"/>
+        <v>15843779.900320511</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="11"/>
+        <v>0.99082665260165093</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J29" s="2">
+        <v>2009</v>
+      </c>
+      <c r="K29" s="13">
+        <v>16183519</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="10"/>
+        <v>16286396.401749171</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0063569240873491</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J30" s="2">
+        <v>2010</v>
+      </c>
+      <c r="K30" s="13">
+        <v>16231494</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" si="10"/>
+        <v>16875763.734375</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0396925713908405</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J31" s="2">
+        <v>2011</v>
+      </c>
+      <c r="K31" s="13">
+        <v>16726566</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="10"/>
+        <v>17310384</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0349036377221721</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="K32" s="13">
+        <v>16868371</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="10"/>
+        <v>17454460.645669293</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0347448870830083</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13">
+        <f>17804*365</f>
+        <v>6498460</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="J33" s="2">
+        <v>2013</v>
+      </c>
+      <c r="K33" s="13">
+        <v>15737331</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" si="10"/>
+        <v>17803968</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1313206794722688</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13">
+        <v>2017</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>6509690</v>
+      </c>
+      <c r="R33" s="3">
+        <f>Q33/P32</f>
+        <v>1.0017281017348725</v>
+      </c>
+      <c r="S33" s="2"/>
       <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="J34" s="2">
+        <v>2014</v>
+      </c>
+      <c r="K34" s="13">
+        <v>54850434</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="10"/>
+        <v>18347784</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="11"/>
+        <v>0.3345057215044096</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="J35" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K35" s="13">
+        <v>25620539</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="10"/>
+        <v>19047028</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="11"/>
+        <v>0.74342807542027123</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="J36" s="2">
+        <v>2016</v>
+      </c>
+      <c r="K36" s="13">
+        <v>16717362</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="10"/>
+        <v>19580652</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1712764250723291</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="J37">
+        <v>2017</v>
+      </c>
+      <c r="K37" s="13">
+        <v>18844055</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="10"/>
+        <v>19805324.885375485</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0510118382362759</v>
+      </c>
+      <c r="N37" s="13">
+        <f>52838*365</f>
+        <v>19285870</v>
+      </c>
+      <c r="O37" s="3">
+        <f>N37/K37</f>
+        <v>1.0234458560007387</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="J38">
+        <v>2018</v>
+      </c>
+      <c r="K38" s="13">
+        <v>15936813</v>
+      </c>
+      <c r="L38" s="13">
+        <f t="shared" si="10"/>
+        <v>20269944.914605755</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2718945070514258</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="J39">
+        <v>2019</v>
+      </c>
+      <c r="K39" s="13">
+        <v>16119977</v>
+      </c>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="J40">
+        <v>2020</v>
+      </c>
+      <c r="K40" s="13">
+        <v>14313318</v>
+      </c>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="M41" s="15">
+        <f>AVERAGE(M22:M33)</f>
+        <v>1.0178883646244639</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
